--- a/biology/Botanique/Rhododendron_ferrugineux/Rhododendron_ferrugineux.xlsx
+++ b/biology/Botanique/Rhododendron_ferrugineux/Rhododendron_ferrugineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron ferrugineum
 Le Rhododendron ferrugineux (Rhododendron ferrugineum), également appelé Laurier-rose des Alpes, Rosage ou Rose des Alpes, est une espèce de plantes à fleurs de la famille des Éricacées.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Rhododendron est un arbuste sempervirent à longue durée de vie (pouvant atteindre 300 ans au moins), qui domine et structure des landes à éricacées sur les versants nord à nord-ouest de l’étage subalpin (1 400 m-2 400 m). Sa floraison spectaculaire (en moyenne 300 inflorescences de 5 à 22 fleurs/m2) et sa croissance débutent simultanément environ 15 jours après la fonte des neiges et se déroulent sur à peine plus d’un mois lorsque les conditions climatiques lui sont favorables (entre fin mai et début août selon les altitudes)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Rhododendron est un arbuste sempervirent à longue durée de vie (pouvant atteindre 300 ans au moins), qui domine et structure des landes à éricacées sur les versants nord à nord-ouest de l’étage subalpin (1 400 m-2 400 m). Sa floraison spectaculaire (en moyenne 300 inflorescences de 5 à 22 fleurs/m2) et sa croissance débutent simultanément environ 15 jours après la fonte des neiges et se déroulent sur à peine plus d’un mois lorsque les conditions climatiques lui sont favorables (entre fin mai et début août selon les altitudes).
 Il forme des buissons de 30 à 120 cm de hauteur, épousant les formes du relief.
 Les feuilles sont persistantes, glabres à bord entier non cilié, de couleur vert foncé. Elles présentent une couleur rouille sur leur revers, ce qui a donné le nom à l'espèce.
 Les fleurs sont odorantes d'un beau rose vif, groupées par 6 à 10 à l'extrémité des rameaux. La floraison s'étale de juin à août.
@@ -547,7 +561,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse dans les rocailles, pelouses et bois clairs sur les sols acides des versants nord des montagnes, au-dessus de la limite des arbres de l'étage alpin.
 </t>
@@ -578,7 +594,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il renferme de l'arbutine, de l'aricoline et de rhodoxanthine. Ils sont considérés de toxicité moyenne, provoquent des vomissements, des troubles digestifs divers, des troubles nerveux, respiratoires et cardiovasculaires.
 </t>
@@ -609,7 +627,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante ne bénéficie pas de mesure de protection particulière.
 </t>
